--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>OFFICE</t>
   </si>
@@ -84,7 +84,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2020-00218</t>
+    <t>2020-00221</t>
   </si>
   <si>
     <t>2020-03-02</t>
@@ -99,19 +99,73 @@
     <t>FAD-RICTU</t>
   </si>
   <si>
-    <t xml:space="preserve">                          Cannot print properly                                                                                                 </t>
+    <t xml:space="preserve">Cannot print properly                                                                       </t>
   </si>
   <si>
     <t>PRINTER/SCANNER</t>
   </si>
   <si>
-    <t>Mark Kim A. Sacluti</t>
-  </si>
-  <si>
-    <t>1:50 PM</t>
-  </si>
-  <si>
-    <t>10 minute</t>
+    <t>1:45 PM</t>
+  </si>
+  <si>
+    <t>5minutes</t>
+  </si>
+  <si>
+    <t>2020-00220</t>
+  </si>
+  <si>
+    <t>9:16 AM</t>
+  </si>
+  <si>
+    <t>KRISTOFFER GUINTO MOJICA</t>
+  </si>
+  <si>
+    <t>LGMED-PDMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Validation of Subaybayan accounts
+</t>
+  </si>
+  <si>
+    <t>SOFTWARE/SYSTEM</t>
+  </si>
+  <si>
+    <t>9:20 AM</t>
+  </si>
+  <si>
+    <t>9:22 AM</t>
+  </si>
+  <si>
+    <t>2minutes</t>
+  </si>
+  <si>
+    <t>2020-00222</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2:03 PM</t>
+  </si>
+  <si>
+    <t>MARK KIM ALEJO SACLUTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample
+                                                  </t>
+  </si>
+  <si>
+    <t>DESKTOP/LAPTOP</t>
+  </si>
+  <si>
+    <t>2:30 PM</t>
+  </si>
+  <si>
+    <t>2:37 PM</t>
+  </si>
+  <si>
+    <t>7minutes</t>
   </si>
 </sst>
 </file>
@@ -281,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -370,6 +424,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -776,7 +836,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -969,9 +1029,7 @@
       <c r="I15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30" t="s">
         <v>22</v>
@@ -983,52 +1041,108 @@
         <v>22</v>
       </c>
       <c r="O15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="30" t="s">
         <v>29</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>30</v>
       </c>
       <c r="Q15" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+    <row r="16" spans="1:17" customHeight="1" ht="53">
+      <c r="A16" s="30">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="L16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="53">
+      <c r="A17" s="30">
+        <v>3</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>44</v>
+      </c>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="L17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30"/>
@@ -1584,6 +1698,8 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>OFFICE</t>
   </si>
@@ -138,34 +138,6 @@
   </si>
   <si>
     <t>2minutes</t>
-  </si>
-  <si>
-    <t>2020-00222</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2:03 PM</t>
-  </si>
-  <si>
-    <t>MARK KIM ALEJO SACLUTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample
-                                                  </t>
-  </si>
-  <si>
-    <t>DESKTOP/LAPTOP</t>
-  </si>
-  <si>
-    <t>2:30 PM</t>
-  </si>
-  <si>
-    <t>2:37 PM</t>
-  </si>
-  <si>
-    <t>7minutes</t>
   </si>
 </sst>
 </file>
@@ -335,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -424,9 +396,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -836,7 +805,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1097,52 +1066,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" customHeight="1" ht="53">
-      <c r="A17" s="30">
-        <v>3</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>42</v>
-      </c>
+    <row r="17" spans="1:17">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>44</v>
-      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>5</v>
-      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30"/>
@@ -1699,7 +1640,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>OFFICE</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>PRINTER/SCANNER</t>
+  </si>
+  <si>
+    <t>Mark Kim Sacluti</t>
   </si>
   <si>
     <t>1:45 PM</t>
@@ -138,6 +141,139 @@
   </si>
   <si>
     <t>2minutes</t>
+  </si>
+  <si>
+    <t>2020-00222</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>10:03 AM</t>
+  </si>
+  <si>
+    <t>ALLAN ABUSTAN SALVATUS</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          MS Office could not be activated.
+                                                                            </t>
+  </si>
+  <si>
+    <t>10:15 AM</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
+  </si>
+  <si>
+    <t>2020-00223</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>BEZALEEL ONG SOLTURA</t>
+  </si>
+  <si>
+    <t>FAD-GSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                  </t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>0minutes</t>
+  </si>
+  <si>
+    <t>2020-00224</t>
+  </si>
+  <si>
+    <t>Rex Oscar L Segunial</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>Cannot perform print sharing</t>
+  </si>
+  <si>
+    <t>2020-00225</t>
+  </si>
+  <si>
+    <t>MARY JANICE BALAHADIA SOBREMONTE</t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant access LGU account
+                                                 </t>
+  </si>
+  <si>
+    <t>2020-00226</t>
+  </si>
+  <si>
+    <t>JUDY ANN RIVAS SILVA</t>
+  </si>
+  <si>
+    <t>ORD-8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot access to the internet
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-00227</t>
+  </si>
+  <si>
+    <t>LADY CEZANIE  ABEJERO SABANAL</t>
+  </si>
+  <si>
+    <t>ORD-Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot print properly 
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-00228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No internet connection 
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-0229</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>7:03 AM</t>
+  </si>
+  <si>
+    <t>JORDAN VILLANUEVA NADAL</t>
+  </si>
+  <si>
+    <t>ORD-Legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          
+Cannot connect to the internet                          </t>
+  </si>
+  <si>
+    <t>8:15 AM</t>
+  </si>
+  <si>
+    <t>15minutes</t>
   </si>
 </sst>
 </file>
@@ -307,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -396,6 +532,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -805,7 +965,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,7 +1158,9 @@
       <c r="I15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30" t="s">
         <v>22</v>
@@ -1010,10 +1172,10 @@
         <v>22</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="30">
         <v>5</v>
@@ -1024,199 +1186,441 @@
         <v>2</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+    <row r="17" spans="1:17" customHeight="1" ht="53">
+      <c r="A17" s="30">
+        <v>3</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>43</v>
+      </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="L17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="53">
+      <c r="A18" s="30">
+        <v>4</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>50</v>
+      </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="L18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="53">
+      <c r="A19" s="30">
+        <v>5</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="L19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="53">
+      <c r="A20" s="30">
+        <v>6</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="L20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="53">
+      <c r="A21" s="30">
+        <v>7</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="L21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="53">
+      <c r="A22" s="30">
+        <v>8</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="L22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="53">
+      <c r="A23" s="30">
+        <v>9</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="L23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="53">
+      <c r="A24" s="30">
+        <v>10</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="L24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="30"/>
@@ -1640,6 +2044,14 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>OFFICE</t>
   </si>
@@ -99,7 +99,7 @@
     <t>FAD-RICTU</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannot print properly                                                                       </t>
+    <t xml:space="preserve">                          Cannot print properly                                                                                                 </t>
   </si>
   <si>
     <t>PRINTER/SCANNER</t>
@@ -108,10 +108,16 @@
     <t>Mark Kim Sacluti</t>
   </si>
   <si>
-    <t>1:45 PM</t>
-  </si>
-  <si>
-    <t>5minutes</t>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>1:41 PM</t>
+  </si>
+  <si>
+    <t>1:47 PM</t>
+  </si>
+  <si>
+    <t>6minutes</t>
   </si>
   <si>
     <t>2020-00220</t>
@@ -168,6 +174,9 @@
     <t>10:20 AM</t>
   </si>
   <si>
+    <t>5minutes</t>
+  </si>
+  <si>
     <t>2020-00223</t>
   </si>
   <si>
@@ -196,13 +205,22 @@
     <t>2020-00224</t>
   </si>
   <si>
+    <t>2:03 PM</t>
+  </si>
+  <si>
     <t>Rex Oscar L Segunial</t>
   </si>
   <si>
     <t>FAD</t>
   </si>
   <si>
-    <t>Cannot perform print sharing</t>
+    <t xml:space="preserve">                          Cannot perform print sharing                          </t>
+  </si>
+  <si>
+    <t>2:10 PM</t>
+  </si>
+  <si>
+    <t>2:15 PM</t>
   </si>
   <si>
     <t>2020-00225</t>
@@ -221,14 +239,23 @@
     <t>2020-00226</t>
   </si>
   <si>
+    <t>4:03 PM</t>
+  </si>
+  <si>
     <t>JUDY ANN RIVAS SILVA</t>
   </si>
   <si>
     <t>ORD-8888</t>
   </si>
   <si>
-    <t xml:space="preserve">cannot access to the internet
-                                                  </t>
+    <t xml:space="preserve">                          cannot access to the internet
+                                                                            </t>
+  </si>
+  <si>
+    <t>4:05 PM</t>
+  </si>
+  <si>
+    <t>4:10 PM</t>
   </si>
   <si>
     <t>2020-00227</t>
@@ -254,9 +281,6 @@
     <t>2020-0229</t>
   </si>
   <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
     <t>7:03 AM</t>
   </si>
   <si>
@@ -274,6 +298,28 @@
   </si>
   <si>
     <t>15minutes</t>
+  </si>
+  <si>
+    <t>2020-0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to print through network sharing
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-0231</t>
+  </si>
+  <si>
+    <t>3:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGU P4 account
+-Cant upload files and activities 
+-no assigned role 
+-update City/Municipality            </t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
   </si>
 </sst>
 </file>
@@ -443,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -532,6 +578,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -965,7 +1017,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,19 +1215,19 @@
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="30">
         <v>5</v>
@@ -1186,26 +1238,26 @@
         <v>2</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>28</v>
@@ -1215,16 +1267,16 @@
         <v>22</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="30">
         <v>5</v>
@@ -1235,45 +1287,45 @@
         <v>3</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="30">
         <v>5</v>
@@ -1284,45 +1336,45 @@
         <v>4</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="30">
         <v>5</v>
@@ -1333,45 +1385,45 @@
         <v>5</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="30">
         <v>5</v>
@@ -1382,45 +1434,45 @@
         <v>6</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="30">
         <v>5</v>
@@ -1431,45 +1483,45 @@
         <v>7</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="30" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="30">
         <v>5</v>
@@ -1480,45 +1532,45 @@
         <v>8</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O22" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="30">
         <v>5</v>
@@ -1529,45 +1581,45 @@
         <v>9</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="30">
         <v>5</v>
@@ -1578,87 +1630,143 @@
         <v>10</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="O24" s="30" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+    <row r="25" spans="1:17" customHeight="1" ht="53">
+      <c r="A25" s="30">
+        <v>11</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="L25" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="53">
+      <c r="A26" s="30">
+        <v>12</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="L26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="30"/>
@@ -2052,6 +2160,8 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>OFFICE</t>
   </si>
@@ -99,16 +99,25 @@
     <t>FAD-RICTU</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannot print properly                                                                       </t>
+    <t xml:space="preserve">                          Cannot print properly                                                                                                 </t>
   </si>
   <si>
     <t>PRINTER/SCANNER</t>
   </si>
   <si>
-    <t>1:45 PM</t>
-  </si>
-  <si>
-    <t>5minutes</t>
+    <t>Mark Kim Sacluti</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>1:41 PM</t>
+  </si>
+  <si>
+    <t>1:47 PM</t>
+  </si>
+  <si>
+    <t>6minutes</t>
   </si>
   <si>
     <t>2020-00220</t>
@@ -131,6 +140,9 @@
     <t>SOFTWARE/SYSTEM</t>
   </si>
   <si>
+    <t>Shiela Mei Olivar</t>
+  </si>
+  <si>
     <t>9:20 AM</t>
   </si>
   <si>
@@ -138,6 +150,214 @@
   </si>
   <si>
     <t>2minutes</t>
+  </si>
+  <si>
+    <t>2020-00222</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>10:03 AM</t>
+  </si>
+  <si>
+    <t>ALLAN ABUSTAN SALVATUS</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          MS Office could not be activated.
+                                                                            </t>
+  </si>
+  <si>
+    <t>10:15 AM</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
+  </si>
+  <si>
+    <t>5minutes</t>
+  </si>
+  <si>
+    <t>2020-00223</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>BEZALEEL ONG SOLTURA</t>
+  </si>
+  <si>
+    <t>FAD-GSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                  </t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>0minutes</t>
+  </si>
+  <si>
+    <t>2020-00224</t>
+  </si>
+  <si>
+    <t>2:03 PM</t>
+  </si>
+  <si>
+    <t>Rex Oscar L Segunial</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Cannot perform print sharing                          </t>
+  </si>
+  <si>
+    <t>2:10 PM</t>
+  </si>
+  <si>
+    <t>2:15 PM</t>
+  </si>
+  <si>
+    <t>2020-00225</t>
+  </si>
+  <si>
+    <t>MARY JANICE BALAHADIA SOBREMONTE</t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant access LGU account
+                                                 </t>
+  </si>
+  <si>
+    <t>2020-00226</t>
+  </si>
+  <si>
+    <t>4:03 PM</t>
+  </si>
+  <si>
+    <t>JUDY ANN RIVAS SILVA</t>
+  </si>
+  <si>
+    <t>ORD-8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          cannot access to the internet
+                                                                            </t>
+  </si>
+  <si>
+    <t>4:05 PM</t>
+  </si>
+  <si>
+    <t>4:10 PM</t>
+  </si>
+  <si>
+    <t>2020-00227</t>
+  </si>
+  <si>
+    <t>LADY CEZANIE  ABEJERO SABANAL</t>
+  </si>
+  <si>
+    <t>ORD-Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot print properly 
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-00228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No internet connection 
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-00229</t>
+  </si>
+  <si>
+    <t>7:03 AM</t>
+  </si>
+  <si>
+    <t>JORDAN VILLANUEVA NADAL</t>
+  </si>
+  <si>
+    <t>ORD-Legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          
+Cannot connect to the internet                          </t>
+  </si>
+  <si>
+    <t>8:15 AM</t>
+  </si>
+  <si>
+    <t>15minutes</t>
+  </si>
+  <si>
+    <t>2020-00230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to print through network sharing
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-00231</t>
+  </si>
+  <si>
+    <t>3:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGU P4 account
+-Cant upload files and activities 
+-no assigned role 
+-update City/Municipality            </t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>2020-0232</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>MARK KIM ALEJO SACLUTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-0233</t>
+  </si>
+  <si>
+    <t>10:57 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          sample problem
+                                                                            </t>
+  </si>
+  <si>
+    <t>DESKTOP/LAPTOP</t>
+  </si>
+  <si>
+    <t>11:03 AM</t>
+  </si>
+  <si>
+    <t>12:18 PM</t>
+  </si>
+  <si>
+    <t>75minutes</t>
   </si>
 </sst>
 </file>
@@ -307,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -396,6 +616,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -805,7 +1061,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,22 +1254,24 @@
       <c r="I15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="30">
         <v>5</v>
@@ -1024,274 +1282,628 @@
         <v>2</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+    <row r="17" spans="1:17" customHeight="1" ht="53">
+      <c r="A17" s="30">
+        <v>3</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="L17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="53">
+      <c r="A18" s="30">
+        <v>4</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="L18" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="53">
+      <c r="A19" s="30">
+        <v>5</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="L19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="53">
+      <c r="A20" s="30">
+        <v>6</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="L20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="53">
+      <c r="A21" s="30">
+        <v>7</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="L21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="53">
+      <c r="A22" s="30">
+        <v>8</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="L22" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="53">
+      <c r="A23" s="30">
+        <v>9</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="L23" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="53">
+      <c r="A24" s="30">
+        <v>10</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="L24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="53">
+      <c r="A25" s="30">
+        <v>11</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="L25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="53">
+      <c r="A26" s="30">
+        <v>12</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="L26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="53">
+      <c r="A27" s="30">
+        <v>13</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="L27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="53">
+      <c r="A28" s="30">
+        <v>14</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="G28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
+      <c r="L28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17">
@@ -1640,6 +2252,18 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of March 2020</t>
+    <t>Month of February 2020</t>
   </si>
   <si>
     <t>No.</t>
@@ -84,25 +84,25 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2020-00221</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>1:40 PM</t>
-  </si>
-  <si>
-    <t>RESTITUTO BASOY NANEZ, III</t>
-  </si>
-  <si>
-    <t>FAD-RICTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          Cannot print properly                                                                                                 </t>
-  </si>
-  <si>
-    <t>PRINTER/SCANNER</t>
+    <t>2020-00218</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>9:00 AM</t>
+  </si>
+  <si>
+    <t>JOHN CARLO MOJARES HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTIVITY</t>
   </si>
   <si>
     <t>Mark Kim Sacluti</t>
@@ -111,19 +111,19 @@
     <t>2020-03-10</t>
   </si>
   <si>
-    <t>1:41 PM</t>
-  </si>
-  <si>
-    <t>1:47 PM</t>
-  </si>
-  <si>
-    <t>6minutes</t>
-  </si>
-  <si>
-    <t>2020-00220</t>
-  </si>
-  <si>
-    <t>9:16 AM</t>
+    <t>9:10 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 10 minutes</t>
+  </si>
+  <si>
+    <t>2020-00219</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
   </si>
   <si>
     <t>KRISTOFFER GUINTO MOJICA</t>
@@ -132,8 +132,8 @@
     <t>LGMED-PDMU</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Validation of Subaybayan accounts
+    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
+*Accessibility issue
 </t>
   </si>
   <si>
@@ -143,221 +143,35 @@
     <t>Shiela Mei Olivar</t>
   </si>
   <si>
-    <t>9:20 AM</t>
-  </si>
-  <si>
-    <t>9:22 AM</t>
-  </si>
-  <si>
-    <t>2minutes</t>
-  </si>
-  <si>
-    <t>2020-00222</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>10:03 AM</t>
-  </si>
-  <si>
-    <t>ALLAN ABUSTAN SALVATUS</t>
-  </si>
-  <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          MS Office could not be activated.
-                                                                            </t>
-  </si>
-  <si>
-    <t>10:15 AM</t>
-  </si>
-  <si>
-    <t>10:20 AM</t>
-  </si>
-  <si>
-    <t>5minutes</t>
-  </si>
-  <si>
-    <t>2020-00223</t>
-  </si>
-  <si>
-    <t>8:00 AM</t>
-  </si>
-  <si>
-    <t>BEZALEEL ONG SOLTURA</t>
-  </si>
-  <si>
-    <t>FAD-GSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                  </t>
-  </si>
-  <si>
-    <t>INTERNET CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>0minutes</t>
-  </si>
-  <si>
-    <t>2020-00224</t>
-  </si>
-  <si>
-    <t>2:03 PM</t>
-  </si>
-  <si>
-    <t>Rex Oscar L Segunial</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          Cannot perform print sharing                          </t>
-  </si>
-  <si>
-    <t>2:10 PM</t>
-  </si>
-  <si>
-    <t>2:15 PM</t>
-  </si>
-  <si>
-    <t>2020-00225</t>
-  </si>
-  <si>
-    <t>MARY JANICE BALAHADIA SOBREMONTE</t>
-  </si>
-  <si>
-    <t>LGCDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cant access LGU account
-                                                 </t>
-  </si>
-  <si>
-    <t>2020-00226</t>
-  </si>
-  <si>
-    <t>4:03 PM</t>
-  </si>
-  <si>
-    <t>JUDY ANN RIVAS SILVA</t>
-  </si>
-  <si>
-    <t>ORD-8888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          cannot access to the internet
-                                                                            </t>
-  </si>
-  <si>
-    <t>4:05 PM</t>
-  </si>
-  <si>
-    <t>4:10 PM</t>
-  </si>
-  <si>
-    <t>2020-00227</t>
-  </si>
-  <si>
-    <t>LADY CEZANIE  ABEJERO SABANAL</t>
-  </si>
-  <si>
-    <t>ORD-Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot print properly 
-                                                  </t>
-  </si>
-  <si>
-    <t>2020-00228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No internet connection 
-                                                  </t>
-  </si>
-  <si>
-    <t>2020-00229</t>
-  </si>
-  <si>
-    <t>7:03 AM</t>
-  </si>
-  <si>
-    <t>JORDAN VILLANUEVA NADAL</t>
-  </si>
-  <si>
-    <t>ORD-Legal</t>
+    <t>1:05 PM</t>
+  </si>
+  <si>
+    <t>2 hours and 5 minutes</t>
+  </si>
+  <si>
+    <t>2020-00217</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>LAICA NAREDO MELANIO</t>
+  </si>
+  <si>
+    <t>FAD-Accounting</t>
   </si>
   <si>
     <t xml:space="preserve">                          
-Cannot connect to the internet                          </t>
-  </si>
-  <si>
-    <t>8:15 AM</t>
-  </si>
-  <si>
-    <t>15minutes</t>
-  </si>
-  <si>
-    <t>2020-00230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to print through network sharing
-                                                  </t>
-  </si>
-  <si>
-    <t>2020-00231</t>
-  </si>
-  <si>
-    <t>3:03 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGU P4 account
--Cant upload files and activities 
--no assigned role 
--update City/Municipality            </t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>2020-0232</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>MARK KIM ALEJO SACLUTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample 
-                                                  </t>
-  </si>
-  <si>
-    <t>2020-0233</t>
-  </si>
-  <si>
-    <t>10:57 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          sample problem
-                                                                            </t>
-  </si>
-  <si>
-    <t>DESKTOP/LAPTOP</t>
-  </si>
-  <si>
-    <t>11:03 AM</t>
-  </si>
-  <si>
-    <t>12:18 PM</t>
-  </si>
-  <si>
-    <t>75minutes</t>
+No internet connection                          </t>
+  </si>
+  <si>
+    <t>9:03 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 0 minutes</t>
   </si>
 </sst>
 </file>
@@ -527,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="34">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -616,39 +430,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1061,7 +842,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1262,16 +1043,16 @@
         <v>29</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="30" t="s">
         <v>31</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>32</v>
       </c>
       <c r="Q15" s="30">
         <v>5</v>
@@ -1282,10 +1063,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>22</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>34</v>
@@ -1308,19 +1089,19 @@
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="30" t="s">
+      <c r="P16" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="Q16" s="30">
         <v>5</v>
@@ -1331,579 +1112,257 @@
         <v>3</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" s="30" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>51</v>
       </c>
       <c r="Q17" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" customHeight="1" ht="53">
-      <c r="A18" s="30">
-        <v>4</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>54</v>
-      </c>
+    <row r="18" spans="1:17">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="53">
-      <c r="A19" s="30">
-        <v>5</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="30"/>
-      <c r="L19" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="53">
-      <c r="A20" s="30">
-        <v>6</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>68</v>
-      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="53">
-      <c r="A21" s="30">
-        <v>7</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>73</v>
-      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q21" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="53">
-      <c r="A22" s="30">
-        <v>8</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="53">
-      <c r="A23" s="30">
-        <v>9</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>79</v>
-      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" customHeight="1" ht="53">
-      <c r="A24" s="30">
-        <v>10</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>86</v>
-      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q24" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" customHeight="1" ht="53">
-      <c r="A25" s="30">
-        <v>11</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>62</v>
-      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="53">
-      <c r="A26" s="30">
-        <v>12</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>68</v>
-      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
-      <c r="L26" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="P26" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" customHeight="1" ht="53">
-      <c r="A27" s="30">
-        <v>13</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>99</v>
-      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="53">
-      <c r="A28" s="30">
-        <v>14</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>35</v>
-      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="30"/>
-      <c r="L28" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P28" s="30" t="s">
-        <v>107</v>
-      </c>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17">
@@ -2253,17 +1712,6 @@
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>OFFICE</t>
   </si>
@@ -166,6 +166,9 @@
   <si>
     <t xml:space="preserve">                          
 No internet connection                          </t>
+  </si>
+  <si>
+    <t>Christian Paul Ferrer</t>
   </si>
   <si>
     <t>9:03 AM</t>
@@ -1134,23 +1137,23 @@
         <v>27</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30" t="s">
         <v>29</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>29</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="30">
         <v>5</v>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$Q$45</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of February 2020</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -82,99 +79,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>2020-00218</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
-  </si>
-  <si>
-    <t>JOHN CARLO MOJARES HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
-  </si>
-  <si>
-    <t>INTERNET CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>Mark Kim Sacluti</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>9:10 AM</t>
-  </si>
-  <si>
-    <t>0 hours and 10 minutes</t>
-  </si>
-  <si>
-    <t>2020-00219</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
-  <si>
-    <t>KRISTOFFER GUINTO MOJICA</t>
-  </si>
-  <si>
-    <t>LGMED-PDMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
-*Accessibility issue
-</t>
-  </si>
-  <si>
-    <t>SOFTWARE/SYSTEM</t>
-  </si>
-  <si>
-    <t>Shiela Mei Olivar</t>
-  </si>
-  <si>
-    <t>1:05 PM</t>
-  </si>
-  <si>
-    <t>2 hours and 5 minutes</t>
-  </si>
-  <si>
-    <t>2020-00217</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>LAICA NAREDO MELANIO</t>
-  </si>
-  <si>
-    <t>FAD-Accounting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          
-No internet connection                          </t>
-  </si>
-  <si>
-    <t>Christian Paul Ferrer</t>
-  </si>
-  <si>
-    <t>9:03 AM</t>
-  </si>
-  <si>
-    <t>0 hours and 0 minutes</t>
   </si>
 </sst>
 </file>
@@ -344,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -433,15 +337,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -845,7 +740,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -920,9 +815,7 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -938,57 +831,57 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="14.4">
       <c r="A13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="19" t="s">
         <v>7</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>8</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="14.4">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -998,166 +891,76 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="N14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" customHeight="1" ht="53">
-      <c r="A15" s="30">
-        <v>1</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" spans="1:17">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="30"/>
-      <c r="L15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="53">
-      <c r="A16" s="30">
-        <v>2</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>35</v>
-      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="53">
-      <c r="A17" s="30">
-        <v>3</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>45</v>
-      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>5</v>
-      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30"/>
@@ -1711,10 +1514,6 @@
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$Q$45</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of February 2020</t>
+    <t>Month of March 2020</t>
   </si>
   <si>
     <t>No.</t>
@@ -84,97 +84,40 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2020-00218</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
-  </si>
-  <si>
-    <t>JOHN CARLO MOJARES HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
-  </si>
-  <si>
-    <t>INTERNET CONNECTIVITY</t>
+    <t>2020-0250</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>10:32 AM</t>
+  </si>
+  <si>
+    <t>MARK KIM ALEJO SACLUTI</t>
+  </si>
+  <si>
+    <t>ORD-Legal</t>
+  </si>
+  <si>
+    <t>final testing 1</t>
+  </si>
+  <si>
+    <t>DESKTOP/LAPTOP</t>
   </si>
   <si>
     <t>Mark Kim Sacluti</t>
   </si>
   <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>9:10 AM</t>
-  </si>
-  <si>
-    <t>0 hours and 10 minutes</t>
-  </si>
-  <si>
-    <t>2020-00219</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
-  <si>
-    <t>KRISTOFFER GUINTO MOJICA</t>
-  </si>
-  <si>
-    <t>LGMED-PDMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
-*Accessibility issue
-</t>
-  </si>
-  <si>
-    <t>SOFTWARE/SYSTEM</t>
-  </si>
-  <si>
-    <t>Shiela Mei Olivar</t>
-  </si>
-  <si>
-    <t>1:05 PM</t>
-  </si>
-  <si>
-    <t>2 hours and 5 minutes</t>
-  </si>
-  <si>
-    <t>2020-00217</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>LAICA NAREDO MELANIO</t>
-  </si>
-  <si>
-    <t>FAD-Accounting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          
-No internet connection                          </t>
-  </si>
-  <si>
-    <t>Christian Paul Ferrer</t>
-  </si>
-  <si>
-    <t>9:03 AM</t>
-  </si>
-  <si>
-    <t>0 hours and 0 minutes</t>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>12:10 PM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>4 hours and 50 minutes</t>
   </si>
 </sst>
 </file>
@@ -344,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -433,15 +376,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -845,7 +779,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1025,7 +959,7 @@
       <c r="D15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="30"/>
@@ -1046,118 +980,56 @@
         <v>29</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="53">
-      <c r="A16" s="30">
-        <v>2</v>
-      </c>
-      <c r="B16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="53">
-      <c r="A17" s="30">
-        <v>3</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>45</v>
-      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>5</v>
-      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30"/>
@@ -1713,8 +1585,6 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of March 2020</t>
+    <t>Month of February 2020</t>
   </si>
   <si>
     <t>No.</t>
@@ -84,40 +84,103 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2020-0250</t>
-  </si>
-  <si>
-    <t>2020-03-01</t>
-  </si>
-  <si>
-    <t>10:32 AM</t>
-  </si>
-  <si>
-    <t>MARK KIM ALEJO SACLUTI</t>
-  </si>
-  <si>
-    <t>ORD-Legal</t>
-  </si>
-  <si>
-    <t>final testing 1</t>
-  </si>
-  <si>
-    <t>DESKTOP/LAPTOP</t>
+    <t>2020-00218</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>9:00 AM</t>
+  </si>
+  <si>
+    <t>JOHN CARLO MOJARES HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTIVITY</t>
   </si>
   <si>
     <t>Mark Kim Sacluti</t>
   </si>
   <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>12:10 PM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>4 hours and 50 minutes</t>
+    <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>0 hours and 0 minutes</t>
+  </si>
+  <si>
+    <t>2020-00219</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>KRISTOFFER GUINTO MOJICA</t>
+  </si>
+  <si>
+    <t>LGMED-PDMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
+*Accessibility issue
+</t>
+  </si>
+  <si>
+    <t>SOFTWARE/SYSTEM</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>9:57 PM</t>
+  </si>
+  <si>
+    <t>1:05 PM</t>
+  </si>
+  <si>
+    <t>8 hours and 52 minutes</t>
+  </si>
+  <si>
+    <t>2020-00217</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>LAICA NAREDO MELANIO</t>
+  </si>
+  <si>
+    <t>FAD-Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          
+No internet connection                          </t>
+  </si>
+  <si>
+    <t>9:53 PM</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>9:03 AM</t>
+  </si>
+  <si>
+    <t>12 hours and 50 minutes</t>
   </si>
 </sst>
 </file>
@@ -779,7 +842,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -976,60 +1039,120 @@
         <v>28</v>
       </c>
       <c r="K15" s="30"/>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="N15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="O15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="P15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="Q15" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="53">
+      <c r="A16" s="30">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="30"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="L16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="53">
+      <c r="A17" s="30">
+        <v>3</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="L17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30"/>
@@ -1585,6 +1708,8 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of February 2020</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -82,105 +79,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>2020-00218</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
-  </si>
-  <si>
-    <t>JOHN CARLO MOJARES HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
-  </si>
-  <si>
-    <t>INTERNET CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>Mark Kim Sacluti</t>
-  </si>
-  <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
-    <t>1970-01-01</t>
-  </si>
-  <si>
-    <t>0 hours and 0 minutes</t>
-  </si>
-  <si>
-    <t>2020-00219</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
-  <si>
-    <t>KRISTOFFER GUINTO MOJICA</t>
-  </si>
-  <si>
-    <t>LGMED-PDMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
-*Accessibility issue
-</t>
-  </si>
-  <si>
-    <t>SOFTWARE/SYSTEM</t>
-  </si>
-  <si>
-    <t>2020-03-26</t>
-  </si>
-  <si>
-    <t>9:57 PM</t>
-  </si>
-  <si>
-    <t>1:05 PM</t>
-  </si>
-  <si>
-    <t>8 hours and 52 minutes</t>
-  </si>
-  <si>
-    <t>2020-00217</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>LAICA NAREDO MELANIO</t>
-  </si>
-  <si>
-    <t>FAD-Accounting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          
-No internet connection                          </t>
-  </si>
-  <si>
-    <t>9:53 PM</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>9:03 AM</t>
-  </si>
-  <si>
-    <t>12 hours and 50 minutes</t>
   </si>
 </sst>
 </file>
@@ -842,7 +740,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -917,9 +815,7 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -935,57 +831,57 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="14.4">
       <c r="A13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="19" t="s">
         <v>7</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>8</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="14.4">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -995,164 +891,76 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="N14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17" customHeight="1" ht="53">
-      <c r="A15" s="30">
-        <v>1</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" spans="1:17">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="53">
-      <c r="A16" s="30">
-        <v>2</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="53">
-      <c r="A17" s="30">
-        <v>3</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>46</v>
-      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>5</v>
-      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30"/>
@@ -1706,10 +1514,6 @@
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">PR No.:  </t>
+  </si>
+  <si>
+    <t>January 01, 1970</t>
+  </si>
   <si>
     <t>OFFICE</t>
   </si>
@@ -762,15 +768,24 @@
     <row r="2" spans="1:17">
       <c r="C2"/>
     </row>
+    <row r="7" spans="1:17">
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="9" spans="1:17">
       <c r="A9" s="16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -787,13 +802,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -810,7 +825,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -831,57 +846,57 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="14.4">
       <c r="A13" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="14.4">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -891,16 +906,16 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="13"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">PR No.:  </t>
-  </si>
-  <si>
-    <t>January 01, 1970</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>OFFICE</t>
   </si>
@@ -42,6 +36,9 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
+    <t>Month of February 2020</t>
+  </si>
+  <si>
     <t>No.</t>
   </si>
   <si>
@@ -85,6 +82,105 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>2020-00218</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>9:00 AM</t>
+  </si>
+  <si>
+    <t>JOHN CARLO MOJARES HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>Mark Kim Sacluti</t>
+  </si>
+  <si>
+    <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>0 hours and 0 minutes</t>
+  </si>
+  <si>
+    <t>2020-00219</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>KRISTOFFER GUINTO MOJICA</t>
+  </si>
+  <si>
+    <t>LGMED-PDMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
+*Accessibility issue
+</t>
+  </si>
+  <si>
+    <t>SOFTWARE/SYSTEM</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>9:57 PM</t>
+  </si>
+  <si>
+    <t>1:05 PM</t>
+  </si>
+  <si>
+    <t>8 hours and 52 minutes</t>
+  </si>
+  <si>
+    <t>2020-00217</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>LAICA NAREDO MELANIO</t>
+  </si>
+  <si>
+    <t>FAD-Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          
+No internet connection                          </t>
+  </si>
+  <si>
+    <t>9:53 PM</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>9:03 AM</t>
+  </si>
+  <si>
+    <t>12 hours and 50 minutes</t>
   </si>
 </sst>
 </file>
@@ -746,7 +842,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,24 +864,15 @@
     <row r="2" spans="1:17">
       <c r="C2"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="9" spans="1:17">
       <c r="A9" s="16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -802,13 +889,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -825,12 +912,14 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -846,57 +935,57 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="14.4">
       <c r="A13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" s="20"/>
       <c r="P13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="14.4">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -906,76 +995,164 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="N14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+    <row r="15" spans="1:17" customHeight="1" ht="53">
+      <c r="A15" s="30">
+        <v>1</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="M15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="53">
+      <c r="A16" s="30">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="L16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="53">
+      <c r="A17" s="30">
+        <v>3</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="L17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="30"/>
@@ -1529,6 +1706,10 @@
     <mergeCell ref="E13:F14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$Q$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -246,23 +246,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -293,55 +282,12 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -350,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -360,11 +306,8 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -372,11 +315,8 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -384,20 +324,17 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -405,40 +342,22 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -841,20 +760,20 @@
   </sheetPr>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="8.77734375" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.33203125" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.44140625" customWidth="true" style="0"/>
-    <col min="11" max="11" width="16.6640625" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.88671875" customWidth="true" style="0"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.7109375" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.28515625" customWidth="true" style="0"/>
+    <col min="8" max="8" width="16.7109375" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.85546875" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13.42578125" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.7109375" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9.85546875" customWidth="true" style="0"/>
+    <col min="16" max="16" width="10.85546875" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -864,831 +783,837 @@
     <row r="2" spans="1:17">
       <c r="C2"/>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="25" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="27" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="16" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="13" spans="1:17" customHeight="1" ht="14.4">
-      <c r="A13" s="12" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="13" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="28" t="s">
+      <c r="O13" s="19"/>
+      <c r="P13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17" customHeight="1" ht="14.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="4" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="13"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="53">
-      <c r="A15" s="30">
+      <c r="A15" s="21">
         <v>1</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30" t="s">
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="53">
-      <c r="A16" s="30">
+      <c r="A16" s="21">
         <v>2</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="O16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="30" t="s">
+      <c r="P16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="53">
-      <c r="A17" s="30">
+      <c r="A17" s="21">
         <v>3</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30" t="s">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+    <row r="18" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E9:Q9"/>
     <mergeCell ref="E10:Q10"/>
@@ -1700,12 +1625,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
@@ -1713,7 +1632,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="72" fitToHeight="0" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="71" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1723,7 +1642,7 @@
     <firstFooter/>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" man="1"/>
+    <brk id="48" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" man="1"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of February 2020</t>
+    <t>Month of March 2020</t>
   </si>
   <si>
     <t>No.</t>
@@ -84,103 +84,295 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2020-00218</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
-  </si>
-  <si>
-    <t>JOHN CARLO MOJARES HERNANDEZ</t>
+    <t>2020-00221</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>1:40 PM</t>
+  </si>
+  <si>
+    <t>RESTITUTO BASOY NANEZ, III</t>
+  </si>
+  <si>
+    <t>FAD-RICTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Cannot print properly                                                                                                 </t>
+  </si>
+  <si>
+    <t>PRINTER/SCANNER</t>
+  </si>
+  <si>
+    <t>Mark Kim Sacluti</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>1:41 PM</t>
+  </si>
+  <si>
+    <t>1:47 PM</t>
+  </si>
+  <si>
+    <t>0 hours and 6 minutes</t>
+  </si>
+  <si>
+    <t>2020-00220</t>
+  </si>
+  <si>
+    <t>9:16 AM</t>
+  </si>
+  <si>
+    <t>KRISTOFFER GUINTO MOJICA</t>
+  </si>
+  <si>
+    <t>LGMED-PDMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Validation of Subaybayan accounts
+</t>
+  </si>
+  <si>
+    <t>SOFTWARE/SYSTEM</t>
+  </si>
+  <si>
+    <t>Shiela Mei Olivar</t>
+  </si>
+  <si>
+    <t>9:20 AM</t>
+  </si>
+  <si>
+    <t>9:22 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 2 minutes</t>
+  </si>
+  <si>
+    <t>2020-00222</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>10:03 AM</t>
+  </si>
+  <si>
+    <t>ALLAN ABUSTAN SALVATUS</t>
   </si>
   <si>
     <t>LGMED</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
+    <t xml:space="preserve">                          MS Office could not be activated.
+                                                                            </t>
+  </si>
+  <si>
+    <t>10:15 AM</t>
+  </si>
+  <si>
+    <t>10:20 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 5 minutes</t>
+  </si>
+  <si>
+    <t>2020-00223</t>
+  </si>
+  <si>
+    <t>11:03 AM</t>
+  </si>
+  <si>
+    <t>BEZALEEL ONG SOLTURA</t>
+  </si>
+  <si>
+    <t>FAD-GSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                  </t>
   </si>
   <si>
     <t>INTERNET CONNECTIVITY</t>
   </si>
   <si>
-    <t>Mark Kim Sacluti</t>
+    <t>0000-00-00</t>
   </si>
   <si>
     <t>12:00 AM</t>
   </si>
   <si>
-    <t>1970-01-01</t>
-  </si>
-  <si>
     <t>0 hours and 0 minutes</t>
   </si>
   <si>
-    <t>2020-00219</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
-  <si>
-    <t>KRISTOFFER GUINTO MOJICA</t>
-  </si>
-  <si>
-    <t>LGMED-PDMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
-*Accessibility issue
-</t>
-  </si>
-  <si>
-    <t>SOFTWARE/SYSTEM</t>
-  </si>
-  <si>
-    <t>2020-03-26</t>
-  </si>
-  <si>
-    <t>9:57 PM</t>
+    <t>2020-00224</t>
+  </si>
+  <si>
+    <t>2:03 PM</t>
+  </si>
+  <si>
+    <t>Rex Oscar L Segunial</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Cannot perform print sharing                          </t>
+  </si>
+  <si>
+    <t>2:10 PM</t>
+  </si>
+  <si>
+    <t>2:15 PM</t>
+  </si>
+  <si>
+    <t>2020-00225</t>
+  </si>
+  <si>
+    <t>3:03 PM</t>
+  </si>
+  <si>
+    <t>MARY JANICE BALAHADIA SOBREMONTE</t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant access LGU account
+                                                 </t>
+  </si>
+  <si>
+    <t>2020-00226</t>
+  </si>
+  <si>
+    <t>4:03 PM</t>
+  </si>
+  <si>
+    <t>JUDY ANN RIVAS SILVA</t>
+  </si>
+  <si>
+    <t>ORD-8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          cannot access to the internet
+                                                                            </t>
+  </si>
+  <si>
+    <t>4:05 PM</t>
+  </si>
+  <si>
+    <t>4:10 PM</t>
+  </si>
+  <si>
+    <t>2020-00227</t>
+  </si>
+  <si>
+    <t>LADY CEZANIE  ABEJERO SABANAL</t>
+  </si>
+  <si>
+    <t>ORD-Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot print properly 
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-00228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No internet connection 
+                                                  </t>
+  </si>
+  <si>
+    <t>2020-0229</t>
+  </si>
+  <si>
+    <t>7:03 AM</t>
+  </si>
+  <si>
+    <t>JORDAN VILLANUEVA NADAL</t>
+  </si>
+  <si>
+    <t>ORD-Legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          
+Cannot connect to the internet                          </t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>8:15 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 15 minutes</t>
+  </si>
+  <si>
+    <t>2020-0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to print through network sharing
+                                                                            </t>
+  </si>
+  <si>
+    <t>Christian Paul Ferrer</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-0231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGU P4 account
+-Cant upload files and activities 
+-no assigned role 
+-update City/Municipality            </t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>2020-0232</t>
+  </si>
+  <si>
+    <t>1:03 PM</t>
+  </si>
+  <si>
+    <t>MAY ANN TORRES PAJENAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          No internet connection
+                                                                            </t>
   </si>
   <si>
     <t>1:05 PM</t>
   </si>
   <si>
-    <t>8 hours and 52 minutes</t>
-  </si>
-  <si>
-    <t>2020-00217</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>LAICA NAREDO MELANIO</t>
-  </si>
-  <si>
-    <t>FAD-Accounting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          
-No internet connection                          </t>
-  </si>
-  <si>
-    <t>9:53 PM</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>9:03 AM</t>
-  </si>
-  <si>
-    <t>12 hours and 50 minutes</t>
+    <t>1:07 PM</t>
+  </si>
+  <si>
+    <t>2020-0233</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>11:44 AM</t>
+  </si>
+  <si>
+    <t>MARK KIM ALEJO SACLUTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample
+                                                  </t>
+  </si>
+  <si>
+    <t>DESKTOP/LAPTOP</t>
   </si>
 </sst>
 </file>
@@ -761,7 +953,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -958,18 +1150,20 @@
         <v>28</v>
       </c>
       <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="M15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="O15" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="21">
         <v>5</v>
@@ -980,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>34</v>
@@ -1002,17 +1196,17 @@
         <v>38</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M16" s="21" t="s">
         <v>40</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O16" s="21" t="s">
         <v>41</v>
@@ -1048,239 +1242,567 @@
         <v>48</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>49</v>
       </c>
       <c r="N17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="P17" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="Q17" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+    <row r="18" spans="1:17" customHeight="1" ht="53">
+      <c r="A18" s="21">
+        <v>4</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="53">
+      <c r="A19" s="21">
+        <v>5</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="53">
+      <c r="A20" s="21">
+        <v>6</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="53">
+      <c r="A21" s="21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="53">
+      <c r="A22" s="21">
+        <v>8</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="53">
+      <c r="A23" s="21">
+        <v>9</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="53">
+      <c r="A24" s="21">
+        <v>10</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="53">
+      <c r="A25" s="21">
+        <v>11</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="53">
+      <c r="A26" s="21">
+        <v>12</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="53">
+      <c r="A27" s="21">
+        <v>13</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="53">
+      <c r="A28" s="21">
+        <v>14</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="15"/>
@@ -1629,6 +2151,17 @@
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -318,6 +318,27 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -326,27 +347,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -395,11 +395,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2409825" cy="847725"/>
+    <xdr:ext cx="2543175" cy="847725"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 6" descr=""/>
@@ -748,7 +748,7 @@
   </sheetPr>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" view="pageLayout" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -766,33 +766,33 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1"/>
-      <c r="N1"/>
     </row>
     <row r="2" spans="1:17">
       <c r="C2"/>
+      <c r="N2"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="14.45">
       <c r="A10" s="3" t="s">
@@ -801,29 +801,29 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
@@ -841,66 +841,66 @@
       <c r="Q11" s="8"/>
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="20" t="s">
+      <c r="O13" s="15"/>
+      <c r="P13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
@@ -913,8 +913,8 @@
       <c r="O14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="53">
       <c r="A15" s="21">
@@ -1598,6 +1598,12 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E9:Q9"/>
     <mergeCell ref="E10:Q10"/>
@@ -1609,12 +1615,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
@@ -1622,7 +1622,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="71" fitToHeight="0" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="68" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of February 2020</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -82,93 +79,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>2020-00218</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
-  </si>
-  <si>
-    <t>JOHN CARLO MOJARES HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
-  </si>
-  <si>
-    <t>INTERNET CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>Mark Kim Sacluti</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>9:10 AM</t>
-  </si>
-  <si>
-    <t>0 hours and 10 minutes</t>
-  </si>
-  <si>
-    <t>2020-00219</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
-  <si>
-    <t>KRISTOFFER GUINTO MOJICA</t>
-  </si>
-  <si>
-    <t>LGMED-PDMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
-*Accessibility issue
-</t>
-  </si>
-  <si>
-    <t>SOFTWARE/SYSTEM</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
-    <t>0 hours and 0 minutes</t>
-  </si>
-  <si>
-    <t>2020-00217</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>LAICA NAREDO MELANIO</t>
-  </si>
-  <si>
-    <t>FAD-Accounting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          
-No internet connection                          </t>
-  </si>
-  <si>
-    <t>9:03 AM</t>
   </si>
 </sst>
 </file>
@@ -284,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -347,9 +257,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +656,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,9 +731,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -842,57 +747,57 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="14.45">
       <c r="A13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="14.45">
       <c r="A14" s="17"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -902,166 +807,76 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="N14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" customHeight="1" ht="53">
-      <c r="A15" s="21">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="53">
-      <c r="A16" s="21">
-        <v>2</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="53">
-      <c r="A17" s="21">
-        <v>3</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="9"/>
@@ -1615,10 +1430,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,6 +36,9 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
+    <t>Month of February 2020</t>
+  </si>
+  <si>
     <t>No.</t>
   </si>
   <si>
@@ -79,6 +82,93 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>2020-00218</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>9:00 AM</t>
+  </si>
+  <si>
+    <t>JOHN CARLO MOJARES HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>Mark Kim Sacluti</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>9:10 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 10 minutes</t>
+  </si>
+  <si>
+    <t>2020-00219</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>KRISTOFFER GUINTO MOJICA</t>
+  </si>
+  <si>
+    <t>LGMED-PDMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
+*Accessibility issue
+</t>
+  </si>
+  <si>
+    <t>SOFTWARE/SYSTEM</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 0 minutes</t>
+  </si>
+  <si>
+    <t>2020-00217</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>LAICA NAREDO MELANIO</t>
+  </si>
+  <si>
+    <t>FAD-Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          
+No internet connection                          </t>
+  </si>
+  <si>
+    <t>9:03 AM</t>
   </si>
 </sst>
 </file>
@@ -194,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -257,6 +347,9 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +749,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,7 +824,9 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -747,57 +842,57 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="14.45">
       <c r="A13" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="14.45">
       <c r="A14" s="17"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -807,76 +902,166 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+    <row r="15" spans="1:17" customHeight="1" ht="53">
+      <c r="A15" s="21">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="53">
+      <c r="A16" s="21">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="53">
+      <c r="A17" s="21">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="9"/>
@@ -1430,6 +1615,10 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of February 2020</t>
+    <t>Month of May 2020</t>
   </si>
   <si>
     <t>No.</t>
@@ -84,91 +84,55 @@
     <t>Time</t>
   </si>
   <si>
-    <t>2020-00218</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
-  </si>
-  <si>
-    <t>JOHN CARLO MOJARES HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                    Activation Failed and have no internet connection                                                    </t>
-  </si>
-  <si>
-    <t>INTERNET CONNECTIVITY</t>
-  </si>
-  <si>
-    <t>Mark Kim Sacluti</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>9:10 AM</t>
-  </si>
-  <si>
-    <t>0 hours and 10 minutes</t>
-  </si>
-  <si>
-    <t>2020-00219</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>11:00 AM</t>
-  </si>
-  <si>
-    <t>KRISTOFFER GUINTO MOJICA</t>
-  </si>
-  <si>
-    <t>LGMED-PDMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*SUBAYBAYAN Account of Engr. Rom Joseph V. Pineda
-*Accessibility issue
-</t>
+    <t>2020-243</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>12:35 PM</t>
+  </si>
+  <si>
+    <t>NOEL R BARTOLABAC</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>ddw</t>
+  </si>
+  <si>
+    <t>DESKTOP/LAPTOP</t>
+  </si>
+  <si>
+    <t>Charles Adrian T. Odi</t>
+  </si>
+  <si>
+    <t>1:09 PM</t>
+  </si>
+  <si>
+    <t>4:28 AM</t>
+  </si>
+  <si>
+    <t>12 hours and 9 minutes</t>
+  </si>
+  <si>
+    <t>2020-244</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>9:49 AM</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
   <si>
     <t>SOFTWARE/SYSTEM</t>
   </si>
   <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
     <t>0 hours and 0 minutes</t>
-  </si>
-  <si>
-    <t>2020-00217</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
-    <t>LAICA NAREDO MELANIO</t>
-  </si>
-  <si>
-    <t>FAD-Accounting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          
-No internet connection                          </t>
-  </si>
-  <si>
-    <t>9:03 AM</t>
   </si>
 </sst>
 </file>
@@ -749,7 +713,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,14 +911,12 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="N15" s="21"/>
       <c r="O15" s="21" t="s">
         <v>30</v>
       </c>
@@ -962,7 +924,7 @@
         <v>31</v>
       </c>
       <c r="Q15" s="21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="53">
@@ -979,89 +941,53 @@
         <v>34</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="Q16" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="53">
-      <c r="A17" s="21">
-        <v>3</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="9"/>
@@ -1618,7 +1544,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_fmlReport.xlsx
+++ b/_fmlReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">OFFICEPERIOD: </t>
   </si>
   <si>
-    <t>Month of May 2020</t>
+    <t>Month of June 2020</t>
   </si>
   <si>
     <t>No.</t>
@@ -84,52 +84,433 @@
     <t>Time</t>
   </si>
   <si>
+    <t>2020-236</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>9:24 PM</t>
+  </si>
+  <si>
+    <t>Maybelline Monteiro</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>research on usage of Zoom</t>
+  </si>
+  <si>
+    <t>INTERNET CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>Charles Adrian T. Odi</t>
+  </si>
+  <si>
+    <t>9:25 PM</t>
+  </si>
+  <si>
+    <t>9:45 PM</t>
+  </si>
+  <si>
+    <t>0 hours and 20 minutes</t>
+  </si>
+  <si>
+    <t>2020-237</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>9:30 PM</t>
+  </si>
+  <si>
+    <t>no display on monitor</t>
+  </si>
+  <si>
+    <t>DESKTOP/LAPTOP</t>
+  </si>
+  <si>
+    <t>Mark Kim A. Sacluti</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>3:10 PM</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2:40 AM</t>
+  </si>
+  <si>
+    <t>12 hours and 30 minutes</t>
+  </si>
+  <si>
+    <t>2020-238</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>10:10 PM</t>
+  </si>
+  <si>
+    <t>Please install new printer EPSON L5190</t>
+  </si>
+  <si>
+    <t>PRINTER/SCANNER</t>
+  </si>
+  <si>
+    <t>Shiela Mei E. Olivar</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>12:22 PM</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>11 hours and 22 minutes</t>
+  </si>
+  <si>
+    <t>2020-239</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>8:58 AM</t>
+  </si>
+  <si>
+    <t>RAFAEL SATURNO</t>
+  </si>
+  <si>
+    <t>Cannot print properly</t>
+  </si>
+  <si>
+    <t>10:29 AM</t>
+  </si>
+  <si>
+    <t>4 hours and 41 minutes</t>
+  </si>
+  <si>
+    <t>2020-240</t>
+  </si>
+  <si>
+    <t>1:44 PM</t>
+  </si>
+  <si>
+    <t>JUDY ANN RIVAS SILVA</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>Resetting ink level</t>
+  </si>
+  <si>
+    <t>3:33 PM</t>
+  </si>
+  <si>
+    <t>3:50 PM</t>
+  </si>
+  <si>
+    <t>0 hours and 17 minutes</t>
+  </si>
+  <si>
+    <t>2020-241</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>4:00 PM</t>
+  </si>
+  <si>
+    <t>JORGE ALVIN ANDRADA MONTEIRO</t>
+  </si>
+  <si>
+    <t>Requesting creation of govmail account</t>
+  </si>
+  <si>
+    <t>GOVMAIL</t>
+  </si>
+  <si>
+    <t>10:19 PM</t>
+  </si>
+  <si>
+    <t>11:30 PM</t>
+  </si>
+  <si>
+    <t>1 hours and 11 minutes</t>
+  </si>
+  <si>
+    <t>2020-242</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>3:31 PM</t>
+  </si>
+  <si>
+    <t>MA NORMITA ARCEO</t>
+  </si>
+  <si>
+    <t>CAVITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was not able to log in this morning June 15, 2020 due to a problem of poor connectivity by Platinum. It was fully restored just this afternoon.
+Please help me solved this problem.  
+I am a DILG Field Officer from Silang, Cavite. and currently we in </t>
+  </si>
+  <si>
+    <t>4:40 PM</t>
+  </si>
+  <si>
+    <t>6:20 PM</t>
+  </si>
+  <si>
+    <t>1 hours and 40 minutes</t>
+  </si>
+  <si>
     <t>2020-243</t>
   </si>
   <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>12:35 PM</t>
-  </si>
-  <si>
-    <t>NOEL R BARTOLABAC</t>
-  </si>
-  <si>
-    <t>ORD</t>
-  </si>
-  <si>
-    <t>ddw</t>
-  </si>
-  <si>
-    <t>DESKTOP/LAPTOP</t>
-  </si>
-  <si>
-    <t>Charles Adrian T. Odi</t>
-  </si>
-  <si>
-    <t>1:09 PM</t>
-  </si>
-  <si>
-    <t>4:28 AM</t>
-  </si>
-  <si>
-    <t>12 hours and 9 minutes</t>
+    <t>1:11 PM</t>
+  </si>
+  <si>
+    <t>Jorge Alvin Monteiro</t>
+  </si>
+  <si>
+    <t>cant print</t>
+  </si>
+  <si>
+    <t>3:22 PM</t>
+  </si>
+  <si>
+    <t>2 hours and 11 minutes</t>
   </si>
   <si>
     <t>2020-244</t>
   </si>
   <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>9:49 AM</t>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>9:27 AM</t>
+  </si>
+  <si>
+    <t>MARK KIM SACLUTI</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>9:30 AM</t>
+  </si>
+  <si>
+    <t>4:39 PM</t>
+  </si>
+  <si>
+    <t>8 hours and 30 minutes</t>
+  </si>
+  <si>
+    <t>2020-245</t>
+  </si>
+  <si>
+    <t>9:38 AM</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>9:39 AM</t>
+  </si>
+  <si>
+    <t>9:43 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 4 minutes</t>
+  </si>
+  <si>
+    <t>2020-246</t>
+  </si>
+  <si>
+    <t>9:46 AM</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>10:17 AM</t>
+  </si>
+  <si>
+    <t>2020-247</t>
+  </si>
+  <si>
+    <t>9:20 AM</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>9:35 AM</t>
+  </si>
+  <si>
+    <t>8 hours and 35 minutes</t>
+  </si>
+  <si>
+    <t>2020-248</t>
+  </si>
+  <si>
+    <t>9:23 AM</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>2020-249</t>
+  </si>
+  <si>
+    <t>9:26 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test5
+</t>
+  </si>
+  <si>
+    <t>9:31 AM</t>
+  </si>
+  <si>
+    <t>8 hours and 31 minutes</t>
+  </si>
+  <si>
+    <t>2020-250</t>
+  </si>
+  <si>
+    <t>9:17 AM</t>
   </si>
   <si>
     <t>test1</t>
   </si>
   <si>
-    <t>SOFTWARE/SYSTEM</t>
+    <t>9:18 AM</t>
+  </si>
+  <si>
+    <t>8 hours and 18 minutes</t>
+  </si>
+  <si>
+    <t>2020-251</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>9:19 AM</t>
+  </si>
+  <si>
+    <t>8 hours and 19 minutes</t>
+  </si>
+  <si>
+    <t>2020-252</t>
+  </si>
+  <si>
+    <t>10:31 AM</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>10:40 AM</t>
+  </si>
+  <si>
+    <t>11:09 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 29 minutes</t>
+  </si>
+  <si>
+    <t>2020-253</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>4:23 PM</t>
+  </si>
+  <si>
+    <t>CHRISTIAN PAUL FERRER</t>
+  </si>
+  <si>
+    <t>Camera Error.</t>
+  </si>
+  <si>
+    <t>Christian Paul V.  Ferrer</t>
+  </si>
+  <si>
+    <t>4:25 PM</t>
+  </si>
+  <si>
+    <t>5:28 AM</t>
+  </si>
+  <si>
+    <t>10 hours and 57 minutes</t>
+  </si>
+  <si>
+    <t>2020-254</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>SHAYNE RENALYN MERCADO</t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>Cannot print.</t>
+  </si>
+  <si>
+    <t>10:10 AM</t>
+  </si>
+  <si>
+    <t>10:25 AM</t>
+  </si>
+  <si>
+    <t>0 hours and 15 minutes</t>
+  </si>
+  <si>
+    <t>2020-255</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>4:17 PM</t>
+  </si>
+  <si>
+    <t>DARELL DE CHAVEZ</t>
+  </si>
+  <si>
+    <t>LGMED-PDMU</t>
+  </si>
+  <si>
+    <t>HOW TO GET COPIES OF PRINTED DTR FOR THE PROCESSING OF THE SALARIES OF COS</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
   </si>
   <si>
     <t>0 hours and 0 minutes</t>
@@ -713,7 +1094,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,7 +1297,9 @@
       <c r="M15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="O15" s="21" t="s">
         <v>30</v>
       </c>
@@ -924,7 +1307,7 @@
         <v>31</v>
       </c>
       <c r="Q15" s="21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="53">
@@ -953,364 +1336,864 @@
       <c r="I16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="M16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="O16" s="21" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="53">
+      <c r="A17" s="21">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="53">
+      <c r="A18" s="21">
+        <v>4</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="53">
+      <c r="A19" s="21">
+        <v>5</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="53">
+      <c r="A20" s="21">
+        <v>6</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="53">
+      <c r="A21" s="21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="53">
+      <c r="A22" s="21">
+        <v>8</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="53">
+      <c r="A23" s="21">
+        <v>9</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="53">
+      <c r="A24" s="21">
+        <v>10</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="53">
+      <c r="A25" s="21">
+        <v>11</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="53">
+      <c r="A26" s="21">
+        <v>12</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="53">
+      <c r="A27" s="21">
+        <v>13</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="53">
+      <c r="A28" s="21">
+        <v>14</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="53">
+      <c r="A29" s="21">
+        <v>15</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="53">
+      <c r="A30" s="21">
+        <v>16</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="53">
+      <c r="A31" s="21">
+        <v>17</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="53">
+      <c r="A32" s="21">
+        <v>18</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="53">
+      <c r="A33" s="21">
+        <v>19</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="53">
+      <c r="A34" s="21">
+        <v>20</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="9"/>
@@ -1544,6 +2427,24 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E11:Q11"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
